--- a/public/instructivo/Instructivo_Carga_Data_Egresados_Postgrado.xlsx
+++ b/public/instructivo/Instructivo_Carga_Data_Egresados_Postgrado.xlsx
@@ -383,12 +383,6 @@
 4: Divorsiado (a)</t>
   </si>
   <si>
-    <t>Indicador si el Alumno Egresado sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Discapacidad del Alumno Egresado en texto, debe completarse solo si marcó Si a sufre discapacidad (Valor 1)</t>
   </si>
   <si>
@@ -525,6 +519,12 @@
   <si>
     <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
 El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna Y, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el Alumno Egresado sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1092,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -1199,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>24</v>
@@ -1211,7 +1211,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>48</v>
@@ -1220,7 +1220,7 @@
         <v>32</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="93" x14ac:dyDescent="0.35">
@@ -1228,10 +1228,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>24</v>
@@ -1243,13 +1243,13 @@
         <v>65</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
@@ -1278,7 +1278,7 @@
         <v>34</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1307,7 +1307,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1336,7 +1336,7 @@
         <v>37</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1365,7 +1365,7 @@
         <v>39</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1421,7 +1421,7 @@
         <v>43</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1450,7 +1450,7 @@
         <v>44</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1479,7 +1479,7 @@
         <v>46</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1508,7 +1508,7 @@
         <v>48</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>38</v>
@@ -1537,7 +1537,7 @@
         <v>49</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>63</v>
@@ -1566,7 +1566,7 @@
         <v>47</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1577,7 +1577,7 @@
         <v>92</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>24</v>
@@ -1595,7 +1595,7 @@
         <v>58</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1606,7 +1606,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>24</v>
@@ -1624,7 +1624,7 @@
         <v>61</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1635,7 +1635,7 @@
         <v>96</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>24</v>
@@ -1653,7 +1653,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1682,7 +1682,7 @@
         <v>54</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1711,7 +1711,7 @@
         <v>67</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1740,7 +1740,7 @@
         <v>55</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1769,7 +1769,7 @@
         <v>72</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1780,7 +1780,7 @@
         <v>97</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>24</v>
@@ -1798,7 +1798,7 @@
         <v>75</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1806,10 +1806,10 @@
         <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>24</v>
@@ -1827,7 +1827,7 @@
         <v>79</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1838,7 +1838,7 @@
         <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>24</v>
@@ -1856,7 +1856,7 @@
         <v>80</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1867,7 +1867,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>21</v>
